--- a/capstone_items_to_share/Step 6 - Experiment With Various Models/results_summary.xlsx
+++ b/capstone_items_to_share/Step 6 - Experiment With Various Models/results_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michen\OneDrive - University of North Carolina at Chapel Hill\Desktop\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\michen_files\Springboard\Springboard\capstone_items_to_share\Step 6 - Experiment With Various Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02386089-0563-4E0E-8C3E-F0E9D41B387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCDEC94-8BF6-47FA-A54D-862B4A7152A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{709720A4-51C2-4272-8205-69AD3163CB7A}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADDC83-8F3E-442E-BC29-656C899A0E57}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:A85"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3868,7 +3868,8 @@
         <v>0.51</v>
       </c>
       <c r="H129">
-        <v>0.45</v>
+        <f>G129-0.45</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
